--- a/ServeWay_Project/Assets/07.Data/StartFoodDataSet.xlsx
+++ b/ServeWay_Project/Assets/07.Data/StartFoodDataSet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\ServeWay\ServeWay_Project\Assets\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\ServeWay\ServeWay_Project\Assets\07.Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEF8E76-12F8-43D9-A87B-90DA2101BA16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8541002-8A0A-4EBE-92BF-28637D3BCEB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5250" yWindow="930" windowWidth="21600" windowHeight="13395" xr2:uid="{4D35103B-CB93-414B-994D-D848EB4BEE29}"/>
+    <workbookView xWindow="5580" yWindow="1485" windowWidth="15075" windowHeight="13395" xr2:uid="{4D35103B-CB93-414B-994D-D848EB4BEE29}"/>
   </bookViews>
   <sheets>
     <sheet name="StartFoodDatas" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>_FoodName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,6 +123,12 @@
     <t>3
 16</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_EffectPrefabPath</t>
+  </si>
+  <si>
+    <t>Assets/08.Assets/vfx_liquid/Animation/LaserEffect.prefab</t>
   </si>
 </sst>
 </file>
@@ -193,9 +199,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -233,7 +239,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -339,7 +345,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -481,7 +487,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -489,18 +495,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F08313-C97E-49E9-83F1-5828C79C2351}">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="15" width="15.625" customWidth="1"/>
+    <col min="16" max="16" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -546,8 +553,11 @@
       <c r="O1" t="s">
         <v>13</v>
       </c>
+      <c r="P1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -591,17 +601,20 @@
         <v>16</v>
       </c>
       <c r="O2" s="1"/>
+      <c r="P2" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L6" s="1"/>
       <c r="O6" s="1"/>
     </row>

--- a/ServeWay_Project/Assets/07.Data/StartFoodDataSet.xlsx
+++ b/ServeWay_Project/Assets/07.Data/StartFoodDataSet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\ServeWay\ServeWay_Project\Assets\07.Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8541002-8A0A-4EBE-92BF-28637D3BCEB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C092F7-5B73-49E7-9369-E099BBAAAE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="1485" windowWidth="15075" windowHeight="13395" xr2:uid="{4D35103B-CB93-414B-994D-D848EB4BEE29}"/>
+    <workbookView xWindow="5580" yWindow="1485" windowWidth="21345" windowHeight="13395" xr2:uid="{4D35103B-CB93-414B-994D-D848EB4BEE29}"/>
   </bookViews>
   <sheets>
     <sheet name="StartFoodDatas" sheetId="1" r:id="rId1"/>
@@ -98,12 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/Prefabs/TestPrefabs/Food1_Item.prefab</t>
-  </si>
-  <si>
-    <t>Assets/Prefabs/TestPrefabs/RiceBullet.prefab</t>
-  </si>
-  <si>
     <t>_FoodSpriteIndex</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -129,6 +123,14 @@
   </si>
   <si>
     <t>Assets/08.Assets/vfx_liquid/Animation/LaserEffect.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Prefabs/TestPrefabs/CharacterBullet/RiceBullet.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Prefabs/TestPrefabs/Item/Food1_Item.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -498,7 +500,7 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -512,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -554,12 +556,12 @@
         <v>13</v>
       </c>
       <c r="P1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>56</v>
@@ -568,10 +570,10 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -592,17 +594,17 @@
         <v>1</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">

--- a/ServeWay_Project/Assets/07.Data/StartFoodDataSet.xlsx
+++ b/ServeWay_Project/Assets/07.Data/StartFoodDataSet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\ServeWay\ServeWay_Project\Assets\07.Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C092F7-5B73-49E7-9369-E099BBAAAE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B121CB8-600E-46D7-9ADF-9946A553DC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="1485" windowWidth="21345" windowHeight="13395" xr2:uid="{4D35103B-CB93-414B-994D-D848EB4BEE29}"/>
+    <workbookView xWindow="5355" yWindow="450" windowWidth="22095" windowHeight="13395" xr2:uid="{4D35103B-CB93-414B-994D-D848EB4BEE29}"/>
   </bookViews>
   <sheets>
     <sheet name="StartFoodDatas" sheetId="1" r:id="rId1"/>
@@ -499,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F08313-C97E-49E9-83F1-5828C79C2351}">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -564,7 +564,7 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>

--- a/ServeWay_Project/Assets/07.Data/StartFoodDataSet.xlsx
+++ b/ServeWay_Project/Assets/07.Data/StartFoodDataSet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\ServeWay\ServeWay_Project\Assets\07.Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jb944\Desktop\ServeWay\ServeWay_Project\Assets\07.Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B121CB8-600E-46D7-9ADF-9946A553DC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75852947-0449-429C-A7FE-7003273E3FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5355" yWindow="450" windowWidth="22095" windowHeight="13395" xr2:uid="{4D35103B-CB93-414B-994D-D848EB4BEE29}"/>
+    <workbookView xWindow="11415" yWindow="1665" windowWidth="15600" windowHeight="14685" xr2:uid="{4D35103B-CB93-414B-994D-D848EB4BEE29}"/>
   </bookViews>
   <sheets>
     <sheet name="StartFoodDatas" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>_FoodName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,6 +130,17 @@
   </si>
   <si>
     <t>Assets/Prefabs/TestPrefabs/Item/Food1_Item.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_BulletColor_g</t>
+  </si>
+  <si>
+    <t>_BulletColor_r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_BulletColor_b</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,19 +508,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F08313-C97E-49E9-83F1-5828C79C2351}">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="15" width="15.625" customWidth="1"/>
     <col min="16" max="16" width="18.75" customWidth="1"/>
+    <col min="17" max="17" width="19.125" customWidth="1"/>
+    <col min="18" max="18" width="16.875" customWidth="1"/>
+    <col min="19" max="19" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -558,8 +572,17 @@
       <c r="P1" t="s">
         <v>20</v>
       </c>
+      <c r="Q1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -606,17 +629,26 @@
       <c r="P2" t="s">
         <v>21</v>
       </c>
+      <c r="Q2">
+        <v>230</v>
+      </c>
+      <c r="R2">
+        <v>109</v>
+      </c>
+      <c r="S2">
+        <v>58</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L6" s="1"/>
       <c r="O6" s="1"/>
     </row>

--- a/ServeWay_Project/Assets/07.Data/StartFoodDataSet.xlsx
+++ b/ServeWay_Project/Assets/07.Data/StartFoodDataSet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jb944\Desktop\ServeWay\ServeWay_Project\Assets\07.Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75852947-0449-429C-A7FE-7003273E3FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F1E689-026B-4EBF-B8FF-7F2D34F8C7B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11415" yWindow="1665" windowWidth="15600" windowHeight="14685" xr2:uid="{4D35103B-CB93-414B-994D-D848EB4BEE29}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="22290" windowHeight="14685" xr2:uid="{4D35103B-CB93-414B-994D-D848EB4BEE29}"/>
   </bookViews>
   <sheets>
     <sheet name="StartFoodDatas" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>_FoodName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,10 +103,6 @@
   </si>
   <si>
     <t>KOREA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Start</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -141,6 +137,80 @@
   </si>
   <si>
     <t>_BulletColor_b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딤섬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오차즈케</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미역국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알리오 올리오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핫도그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RICE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHINA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JAPAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITALY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Prefabs/TestPrefabs/Item/Food1_Item.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Prefabs/TestPrefabs/CharacterBullet/MeatBullet.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/08.Assets/vfx_smoke_dust/Animation/FireEffect.prefab</t>
+  </si>
+  <si>
+    <t>6
+5</t>
+  </si>
+  <si>
+    <t>Assets/Prefabs/TestPrefabs/CharacterBullet/SoupBullet.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Prefabs/TestPrefabs/CharacterBullet/BreadBullet.prefab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -510,14 +580,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F08313-C97E-49E9-83F1-5828C79C2351}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="15" width="15.625" customWidth="1"/>
-    <col min="16" max="16" width="18.75" customWidth="1"/>
+    <col min="1" max="12" width="15.625" customWidth="1"/>
+    <col min="13" max="13" width="47.125" customWidth="1"/>
+    <col min="14" max="14" width="40.375" customWidth="1"/>
+    <col min="15" max="15" width="15.625" customWidth="1"/>
+    <col min="16" max="16" width="55.5" customWidth="1"/>
     <col min="17" max="17" width="19.125" customWidth="1"/>
     <col min="18" max="18" width="16.875" customWidth="1"/>
     <col min="19" max="19" width="16" customWidth="1"/>
@@ -570,21 +643,21 @@
         <v>13</v>
       </c>
       <c r="P1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" t="s">
         <v>25</v>
-      </c>
-      <c r="R1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -593,10 +666,10 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -608,49 +681,264 @@
         <v>0.2</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>19</v>
+        <v>0.05</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="N2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="Q2">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="R2">
-        <v>109</v>
+        <v>255</v>
       </c>
       <c r="S2">
-        <v>58</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>0.2</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>0.05</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
       <c r="O3" s="1"/>
+      <c r="P3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3">
+        <v>255</v>
+      </c>
+      <c r="R3">
+        <v>255</v>
+      </c>
+      <c r="S3">
+        <v>255</v>
+      </c>
     </row>
     <row r="4" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>0.2</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>0.05</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" t="s">
+        <v>43</v>
+      </c>
       <c r="O4" s="1"/>
+      <c r="P4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4">
+        <v>230</v>
+      </c>
+      <c r="R4">
+        <v>109</v>
+      </c>
+      <c r="S4">
+        <v>58</v>
+      </c>
     </row>
     <row r="5" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>0.2</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>0.05</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" t="s">
+        <v>21</v>
+      </c>
       <c r="O5" s="1"/>
+      <c r="P5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5">
+        <v>255</v>
+      </c>
+      <c r="R5">
+        <v>255</v>
+      </c>
+      <c r="S5">
+        <v>255</v>
+      </c>
     </row>
     <row r="6" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L6" s="1"/>
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>0.2</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>0.05</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" t="s">
+        <v>44</v>
+      </c>
       <c r="O6" s="1"/>
+      <c r="P6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q6">
+        <v>255</v>
+      </c>
+      <c r="R6">
+        <v>255</v>
+      </c>
+      <c r="S6">
+        <v>255</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/ServeWay_Project/Assets/07.Data/StartFoodDataSet.xlsx
+++ b/ServeWay_Project/Assets/07.Data/StartFoodDataSet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jb944\Desktop\ServeWay\ServeWay_Project\Assets\07.Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F1E689-026B-4EBF-B8FF-7F2D34F8C7B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6092D9-2FD3-4D12-8B9B-482006BDB2C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="22290" windowHeight="14685" xr2:uid="{4D35103B-CB93-414B-994D-D848EB4BEE29}"/>
   </bookViews>
@@ -580,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F08313-C97E-49E9-83F1-5828C79C2351}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -798,7 +798,7 @@
         <v>5</v>
       </c>
       <c r="J4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>0.05</v>

--- a/ServeWay_Project/Assets/07.Data/StartFoodDataSet.xlsx
+++ b/ServeWay_Project/Assets/07.Data/StartFoodDataSet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jb944\Desktop\ServeWay\ServeWay_Project\Assets\07.Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6092D9-2FD3-4D12-8B9B-482006BDB2C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C75B886-859E-4415-A93C-0082649954AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="22290" windowHeight="14685" xr2:uid="{4D35103B-CB93-414B-994D-D848EB4BEE29}"/>
+    <workbookView xWindow="7995" yWindow="720" windowWidth="14505" windowHeight="14685" xr2:uid="{4D35103B-CB93-414B-994D-D848EB4BEE29}"/>
   </bookViews>
   <sheets>
     <sheet name="StartFoodDatas" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
   <si>
     <t>_FoodName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,11 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3
-16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>_EffectPrefabPath</t>
   </si>
   <si>
@@ -202,15 +197,16 @@
     <t>Assets/08.Assets/vfx_smoke_dust/Animation/FireEffect.prefab</t>
   </si>
   <si>
-    <t>6
-5</t>
-  </si>
-  <si>
     <t>Assets/Prefabs/TestPrefabs/CharacterBullet/SoupBullet.prefab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Assets/Prefabs/TestPrefabs/CharacterBullet/BreadBullet.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5
+3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -581,7 +577,7 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -643,21 +639,21 @@
         <v>13</v>
       </c>
       <c r="P1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" t="s">
         <v>24</v>
-      </c>
-      <c r="R1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -666,41 +662,41 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H2">
-        <v>0.2</v>
+        <v>0.65</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" t="s">
         <v>39</v>
-      </c>
-      <c r="N2" t="s">
-        <v>40</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q2">
         <v>255</v>
@@ -714,7 +710,7 @@
     </row>
     <row r="3" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -723,41 +719,41 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>1.7</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H3">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="I3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="L3" s="1">
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q3">
         <v>255</v>
@@ -771,7 +767,7 @@
     </row>
     <row r="4" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -780,41 +776,41 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>1.4</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H4">
-        <v>0.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q4">
         <v>230</v>
@@ -828,7 +824,7 @@
     </row>
     <row r="5" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -840,38 +836,38 @@
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <v>0.85</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H5">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.05</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q5">
         <v>255</v>
@@ -885,7 +881,7 @@
     </row>
     <row r="6" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -894,41 +890,41 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6">
+        <v>1.9</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0.8</v>
+      </c>
+      <c r="M6" t="s">
         <v>38</v>
       </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
-      <c r="G6">
-        <v>10</v>
-      </c>
-      <c r="H6">
-        <v>0.2</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-      <c r="J6">
-        <v>5</v>
-      </c>
-      <c r="K6">
-        <v>0.05</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6" t="s">
-        <v>39</v>
-      </c>
       <c r="N6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q6">
         <v>255</v>

--- a/ServeWay_Project/Assets/07.Data/StartFoodDataSet.xlsx
+++ b/ServeWay_Project/Assets/07.Data/StartFoodDataSet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jb944\Desktop\ServeWay\ServeWay_Project\Assets\07.Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C75B886-859E-4415-A93C-0082649954AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007CDF5B-66B7-4AD0-8E20-6F47BA33E5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7995" yWindow="720" windowWidth="14505" windowHeight="14685" xr2:uid="{4D35103B-CB93-414B-994D-D848EB4BEE29}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="18045" windowHeight="14685" xr2:uid="{4D35103B-CB93-414B-994D-D848EB4BEE29}"/>
   </bookViews>
   <sheets>
     <sheet name="StartFoodDatas" sheetId="1" r:id="rId1"/>
@@ -576,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F08313-C97E-49E9-83F1-5828C79C2351}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -756,13 +756,13 @@
         <v>40</v>
       </c>
       <c r="Q3">
-        <v>255</v>
+        <v>140</v>
       </c>
       <c r="R3">
-        <v>255</v>
+        <v>162</v>
       </c>
       <c r="S3">
-        <v>255</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -813,13 +813,13 @@
         <v>40</v>
       </c>
       <c r="Q4">
-        <v>230</v>
+        <v>44</v>
       </c>
       <c r="R4">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="S4">
-        <v>58</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -870,13 +870,13 @@
         <v>19</v>
       </c>
       <c r="Q5">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="R5">
-        <v>255</v>
+        <v>198</v>
       </c>
       <c r="S5">
-        <v>255</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">

--- a/ServeWay_Project/Assets/07.Data/StartFoodDataSet.xlsx
+++ b/ServeWay_Project/Assets/07.Data/StartFoodDataSet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jb944\Desktop\ServeWay\ServeWay_Project\Assets\07.Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007CDF5B-66B7-4AD0-8E20-6F47BA33E5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863390B2-34BF-43E7-961E-FBFDCC9B24AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="18045" windowHeight="14685" xr2:uid="{4D35103B-CB93-414B-994D-D848EB4BEE29}"/>
+    <workbookView xWindow="330" yWindow="435" windowWidth="27225" windowHeight="14685" xr2:uid="{4D35103B-CB93-414B-994D-D848EB4BEE29}"/>
   </bookViews>
   <sheets>
     <sheet name="StartFoodDatas" sheetId="1" r:id="rId1"/>
@@ -113,9 +113,6 @@
     <t>_EffectPrefabPath</t>
   </si>
   <si>
-    <t>Assets/08.Assets/vfx_liquid/Animation/LaserEffect.prefab</t>
-  </si>
-  <si>
     <t>Assets/Prefabs/TestPrefabs/CharacterBullet/RiceBullet.prefab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -192,9 +189,6 @@
   <si>
     <t>Assets/Prefabs/TestPrefabs/CharacterBullet/MeatBullet.prefab</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/08.Assets/vfx_smoke_dust/Animation/FireEffect.prefab</t>
   </si>
   <si>
     <t>Assets/Prefabs/TestPrefabs/CharacterBullet/SoupBullet.prefab</t>
@@ -208,6 +202,12 @@
     <t>5
 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/05.Animations/EffectAnimation/FireEffect.prefab</t>
+  </si>
+  <si>
+    <t>Assets/05.Animations/EffectAnimation/LaserEffect.prefab</t>
   </si>
 </sst>
 </file>
@@ -576,15 +576,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F08313-C97E-49E9-83F1-5828C79C2351}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="12" width="15.625" customWidth="1"/>
-    <col min="13" max="13" width="47.125" customWidth="1"/>
-    <col min="14" max="14" width="40.375" customWidth="1"/>
+    <col min="13" max="14" width="19.25" customWidth="1"/>
     <col min="15" max="15" width="15.625" customWidth="1"/>
     <col min="16" max="16" width="55.5" customWidth="1"/>
     <col min="17" max="17" width="19.125" customWidth="1"/>
@@ -642,18 +641,18 @@
         <v>18</v>
       </c>
       <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" t="s">
         <v>23</v>
-      </c>
-      <c r="R1" t="s">
-        <v>22</v>
-      </c>
-      <c r="S1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -662,10 +661,10 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -689,14 +688,14 @@
         <v>0</v>
       </c>
       <c r="M2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" t="s">
         <v>38</v>
-      </c>
-      <c r="N2" t="s">
-        <v>39</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q2">
         <v>255</v>
@@ -710,7 +709,7 @@
     </row>
     <row r="3" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -719,10 +718,10 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3">
         <v>1.7</v>
@@ -746,14 +745,14 @@
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q3">
         <v>140</v>
@@ -767,7 +766,7 @@
     </row>
     <row r="4" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -776,7 +775,7 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -800,17 +799,17 @@
         <v>0</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q4">
         <v>44</v>
@@ -824,7 +823,7 @@
     </row>
     <row r="5" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -836,7 +835,7 @@
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F5">
         <v>0.85</v>
@@ -860,14 +859,14 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="Q5">
         <v>228</v>
@@ -881,7 +880,7 @@
     </row>
     <row r="6" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -890,10 +889,10 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6">
         <v>1.9</v>
@@ -917,14 +916,14 @@
         <v>0.8</v>
       </c>
       <c r="M6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q6">
         <v>255</v>

--- a/ServeWay_Project/Assets/07.Data/StartFoodDataSet.xlsx
+++ b/ServeWay_Project/Assets/07.Data/StartFoodDataSet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jb944\Desktop\ServeWay\ServeWay_Project\Assets\07.Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863390B2-34BF-43E7-961E-FBFDCC9B24AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE7764E-B57A-4815-9FF8-B213EBBD6549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="330" yWindow="435" windowWidth="27225" windowHeight="14685" xr2:uid="{4D35103B-CB93-414B-994D-D848EB4BEE29}"/>
   </bookViews>
@@ -187,10 +187,6 @@
     <t>Assets/Prefabs/TestPrefabs/Item/Food1_Item.prefab</t>
   </si>
   <si>
-    <t>Assets/Prefabs/TestPrefabs/CharacterBullet/MeatBullet.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Assets/Prefabs/TestPrefabs/CharacterBullet/SoupBullet.prefab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -208,6 +204,10 @@
   </si>
   <si>
     <t>Assets/05.Animations/EffectAnimation/LaserEffect.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Prefabs/TestPrefabs/CharacterBullet/MeatBullet_m.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -576,14 +576,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F08313-C97E-49E9-83F1-5828C79C2351}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="12" width="15.625" customWidth="1"/>
-    <col min="13" max="14" width="19.25" customWidth="1"/>
+    <col min="13" max="13" width="19.25" customWidth="1"/>
+    <col min="14" max="14" width="63" customWidth="1"/>
     <col min="15" max="15" width="15.625" customWidth="1"/>
     <col min="16" max="16" width="55.5" customWidth="1"/>
     <col min="17" max="17" width="19.125" customWidth="1"/>
@@ -691,11 +692,11 @@
         <v>37</v>
       </c>
       <c r="N2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q2">
         <v>255</v>
@@ -752,7 +753,7 @@
       </c>
       <c r="O3" s="1"/>
       <c r="P3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q3">
         <v>140</v>
@@ -799,17 +800,17 @@
         <v>0</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M4" t="s">
         <v>20</v>
       </c>
       <c r="N4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q4">
         <v>44</v>
@@ -866,7 +867,7 @@
       </c>
       <c r="O5" s="1"/>
       <c r="P5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q5">
         <v>228</v>
@@ -919,11 +920,11 @@
         <v>37</v>
       </c>
       <c r="N6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q6">
         <v>255</v>
